--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE25673-B384-4638-B9F5-8015D4812067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FE72F9-D44F-4620-B925-5317E845D298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36645" yWindow="3105" windowWidth="16920" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLR" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
